--- a/data/processed/df_after_preprocessing.xlsx
+++ b/data/processed/df_after_preprocessing.xlsx
@@ -525,25 +525,25 @@
         <v>702</v>
       </c>
       <c r="C2">
-        <v>3348.466267806268</v>
+        <v>4173.646780626781</v>
       </c>
       <c r="D2">
-        <v>15625.10486841909</v>
+        <v>21215.56347013723</v>
       </c>
       <c r="E2">
-        <v>3.42</v>
+        <v>5.87</v>
       </c>
       <c r="F2">
         <v>702</v>
       </c>
       <c r="G2">
-        <v>3348.466267806268</v>
+        <v>4173.646780626781</v>
       </c>
       <c r="H2">
-        <v>15625.10486841909</v>
+        <v>21215.56347013723</v>
       </c>
       <c r="I2">
-        <v>3.42</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -554,25 +554,25 @@
         <v>702</v>
       </c>
       <c r="C3">
-        <v>4835.732905982906</v>
+        <v>5804.340242165243</v>
       </c>
       <c r="D3">
-        <v>16826.34495093154</v>
+        <v>23418.83722332277</v>
       </c>
       <c r="E3">
-        <v>75.3</v>
+        <v>64.94499999999999</v>
       </c>
       <c r="F3">
         <v>702</v>
       </c>
       <c r="G3">
-        <v>4835.732905982906</v>
+        <v>5804.340242165243</v>
       </c>
       <c r="H3">
-        <v>16826.34495093154</v>
+        <v>23418.83722332277</v>
       </c>
       <c r="I3">
-        <v>75.3</v>
+        <v>64.94499999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -583,25 +583,25 @@
         <v>702</v>
       </c>
       <c r="C4">
-        <v>125604.0347150997</v>
+        <v>129382.4180769231</v>
       </c>
       <c r="D4">
-        <v>222683.6730087748</v>
+        <v>222677.9903077481</v>
       </c>
       <c r="E4">
-        <v>11337.935</v>
+        <v>10667.065</v>
       </c>
       <c r="F4">
         <v>702</v>
       </c>
       <c r="G4">
-        <v>125604.0347150997</v>
+        <v>129382.4180769231</v>
       </c>
       <c r="H4">
-        <v>222683.6730087748</v>
+        <v>222677.9903077481</v>
       </c>
       <c r="I4">
-        <v>11337.935</v>
+        <v>10667.065</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -612,10 +612,10 @@
         <v>702</v>
       </c>
       <c r="C5">
-        <v>88.82478632478633</v>
+        <v>82.24786324786325</v>
       </c>
       <c r="D5">
-        <v>653.1794394330155</v>
+        <v>645.7140236882922</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -624,10 +624,10 @@
         <v>702</v>
       </c>
       <c r="G5">
-        <v>88.82478632478633</v>
+        <v>82.24786324786325</v>
       </c>
       <c r="H5">
-        <v>653.1794394330155</v>
+        <v>645.7140236882922</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -641,10 +641,10 @@
         <v>702</v>
       </c>
       <c r="C6">
-        <v>196.6111111111111</v>
+        <v>242.3689458689459</v>
       </c>
       <c r="D6">
-        <v>1131.435000136552</v>
+        <v>1345.535128098044</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -653,10 +653,10 @@
         <v>702</v>
       </c>
       <c r="G6">
-        <v>196.6111111111111</v>
+        <v>242.3689458689459</v>
       </c>
       <c r="H6">
-        <v>1131.435000136552</v>
+        <v>1345.535128098044</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -670,10 +670,10 @@
         <v>702</v>
       </c>
       <c r="C7">
-        <v>0.1652421652421652</v>
+        <v>0.1566951566951567</v>
       </c>
       <c r="D7">
-        <v>0.3830054376090515</v>
+        <v>0.3753524881897063</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -682,10 +682,10 @@
         <v>702</v>
       </c>
       <c r="G7">
-        <v>0.1652421652421652</v>
+        <v>0.1566951566951567</v>
       </c>
       <c r="H7">
-        <v>0.3830054376090515</v>
+        <v>0.3753524881897063</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>702</v>
       </c>
       <c r="C8">
-        <v>46.15954415954416</v>
+        <v>45.7962962962963</v>
       </c>
       <c r="D8">
-        <v>474.4791605498422</v>
+        <v>437.9644880867223</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -711,10 +711,10 @@
         <v>702</v>
       </c>
       <c r="G8">
-        <v>46.15954415954416</v>
+        <v>45.7962962962963</v>
       </c>
       <c r="H8">
-        <v>474.4791605498422</v>
+        <v>437.9644880867223</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -728,10 +728,10 @@
         <v>702</v>
       </c>
       <c r="C9">
-        <v>18.31766381766382</v>
+        <v>17.10826210826211</v>
       </c>
       <c r="D9">
-        <v>153.7827736010962</v>
+        <v>147.7290468623115</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -740,10 +740,10 @@
         <v>702</v>
       </c>
       <c r="G9">
-        <v>18.31766381766382</v>
+        <v>17.10826210826211</v>
       </c>
       <c r="H9">
-        <v>153.7827736010962</v>
+        <v>147.7290468623115</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -757,25 +757,25 @@
         <v>702</v>
       </c>
       <c r="C10">
-        <v>43.80224251851852</v>
+        <v>45.19621422792023</v>
       </c>
       <c r="D10">
-        <v>453.5098236881647</v>
+        <v>453.8936707683302</v>
       </c>
       <c r="E10">
-        <v>0.0340555</v>
+        <v>0.0432515</v>
       </c>
       <c r="F10">
         <v>702</v>
       </c>
       <c r="G10">
-        <v>43.80224251851852</v>
+        <v>45.19621422792023</v>
       </c>
       <c r="H10">
-        <v>453.5098236881647</v>
+        <v>453.8936707683302</v>
       </c>
       <c r="I10">
-        <v>0.0340555</v>
+        <v>0.0432515</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -786,25 +786,25 @@
         <v>702</v>
       </c>
       <c r="C11">
-        <v>925.625021790598</v>
+        <v>1721.461370960114</v>
       </c>
       <c r="D11">
-        <v>11848.20169004341</v>
+        <v>25842.57941809234</v>
       </c>
       <c r="E11">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>702</v>
       </c>
       <c r="G11">
-        <v>925.625021790598</v>
+        <v>1721.461370960114</v>
       </c>
       <c r="H11">
-        <v>11848.20169004341</v>
+        <v>25842.57941809234</v>
       </c>
       <c r="I11">
-        <v>3.95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -815,25 +815,25 @@
         <v>702</v>
       </c>
       <c r="C12">
-        <v>58.10259062108263</v>
+        <v>59.55081342450143</v>
       </c>
       <c r="D12">
-        <v>473.1166806538112</v>
+        <v>474.3042593262923</v>
       </c>
       <c r="E12">
-        <v>1.093873</v>
+        <v>1.082389</v>
       </c>
       <c r="F12">
         <v>702</v>
       </c>
       <c r="G12">
-        <v>58.10259062108263</v>
+        <v>59.55081342450143</v>
       </c>
       <c r="H12">
-        <v>473.1166806538112</v>
+        <v>474.3042593262923</v>
       </c>
       <c r="I12">
-        <v>1.093873</v>
+        <v>1.082389</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -844,25 +844,25 @@
         <v>702</v>
       </c>
       <c r="C13">
-        <v>19.87521621225071</v>
+        <v>19.76931814102564</v>
       </c>
       <c r="D13">
-        <v>452.878660608749</v>
+        <v>452.869683220978</v>
       </c>
       <c r="E13">
-        <v>0.04085800000000001</v>
+        <v>0.049272</v>
       </c>
       <c r="F13">
         <v>702</v>
       </c>
       <c r="G13">
-        <v>19.87521621225071</v>
+        <v>19.76931814102564</v>
       </c>
       <c r="H13">
-        <v>452.878660608749</v>
+        <v>452.869683220978</v>
       </c>
       <c r="I13">
-        <v>0.04085800000000001</v>
+        <v>0.049272</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -873,25 +873,25 @@
         <v>702</v>
       </c>
       <c r="C14">
-        <v>979.262327994302</v>
+        <v>972.5657630085469</v>
       </c>
       <c r="D14">
-        <v>23069.63571530635</v>
+        <v>23068.07147390283</v>
       </c>
       <c r="E14">
-        <v>2.4980605</v>
+        <v>2.634657</v>
       </c>
       <c r="F14">
         <v>702</v>
       </c>
       <c r="G14">
-        <v>979.262327994302</v>
+        <v>972.5657630085469</v>
       </c>
       <c r="H14">
-        <v>23069.63571530635</v>
+        <v>23068.07147390283</v>
       </c>
       <c r="I14">
-        <v>2.4980605</v>
+        <v>2.634657</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -902,25 +902,25 @@
         <v>702</v>
       </c>
       <c r="C15">
-        <v>45.89515341452991</v>
+        <v>46.95721556267807</v>
       </c>
       <c r="D15">
-        <v>489.5157248855679</v>
+        <v>490.1080297415137</v>
       </c>
       <c r="E15">
-        <v>1.1690555</v>
+        <v>1.2093505</v>
       </c>
       <c r="F15">
         <v>702</v>
       </c>
       <c r="G15">
-        <v>45.89515341452991</v>
+        <v>46.95721556267807</v>
       </c>
       <c r="H15">
-        <v>489.5157248855679</v>
+        <v>490.1080297415137</v>
       </c>
       <c r="I15">
-        <v>1.1690555</v>
+        <v>1.2093505</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -931,10 +931,10 @@
         <v>702</v>
       </c>
       <c r="C16">
-        <v>285.6011396011396</v>
+        <v>324.7735042735043</v>
       </c>
       <c r="D16">
-        <v>1412.644692610045</v>
+        <v>1582.81466955413</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -943,10 +943,10 @@
         <v>702</v>
       </c>
       <c r="G16">
-        <v>285.6011396011396</v>
+        <v>324.7735042735043</v>
       </c>
       <c r="H16">
-        <v>1412.644692610045</v>
+        <v>1582.81466955413</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -960,25 +960,25 @@
         <v>702</v>
       </c>
       <c r="C17">
-        <v>10757.51408264177</v>
+        <v>10559.04672006173</v>
       </c>
       <c r="D17">
-        <v>265720.5876124606</v>
+        <v>265708.6370169363</v>
       </c>
       <c r="E17">
-        <v>3.504769</v>
+        <v>3.7240205</v>
       </c>
       <c r="F17">
         <v>702</v>
       </c>
       <c r="G17">
-        <v>10757.51408264177</v>
+        <v>10559.04672006173</v>
       </c>
       <c r="H17">
-        <v>265720.5876124606</v>
+        <v>265708.6370169363</v>
       </c>
       <c r="I17">
-        <v>3.504769</v>
+        <v>3.7240205</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -989,10 +989,10 @@
         <v>702</v>
       </c>
       <c r="C18">
-        <v>7215.430380408186</v>
+        <v>8420.14778723917</v>
       </c>
       <c r="D18">
-        <v>87717.09090034093</v>
+        <v>105182.5099657569</v>
       </c>
       <c r="E18">
         <v>17.44645032</v>
@@ -1001,10 +1001,10 @@
         <v>702</v>
       </c>
       <c r="G18">
-        <v>7215.430380408186</v>
+        <v>8420.14778723917</v>
       </c>
       <c r="H18">
-        <v>87717.09090034093</v>
+        <v>105182.5099657569</v>
       </c>
       <c r="I18">
         <v>17.44645032</v>
@@ -1018,10 +1018,10 @@
         <v>702</v>
       </c>
       <c r="C19">
-        <v>-3542.083702208233</v>
+        <v>-2138.898932802512</v>
       </c>
       <c r="D19">
-        <v>210710.8475763709</v>
+        <v>218645.9304260205</v>
       </c>
       <c r="E19">
         <v>0.001554</v>
@@ -1030,10 +1030,10 @@
         <v>702</v>
       </c>
       <c r="G19">
-        <v>-3542.083702208233</v>
+        <v>-2138.898932802512</v>
       </c>
       <c r="H19">
-        <v>210710.8475763709</v>
+        <v>218645.9304260205</v>
       </c>
       <c r="I19">
         <v>0.001554</v>
@@ -1047,10 +1047,10 @@
         <v>584</v>
       </c>
       <c r="C20">
-        <v>29.60445205479452</v>
+        <v>28.16780821917808</v>
       </c>
       <c r="D20">
-        <v>252.895512048851</v>
+        <v>250.4680611678277</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>702</v>
       </c>
       <c r="G20">
-        <v>24.7962962962963</v>
+        <v>23.6011396011396</v>
       </c>
       <c r="H20">
-        <v>230.8785857452683</v>
+        <v>228.6427182511086</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1076,10 +1076,10 @@
         <v>584</v>
       </c>
       <c r="C21">
-        <v>16279877.06101245</v>
+        <v>20268665.40618398</v>
       </c>
       <c r="D21">
-        <v>209714465.2206325</v>
+        <v>222612526.1532302</v>
       </c>
       <c r="E21">
         <v>1.337</v>
@@ -1088,10 +1088,10 @@
         <v>702</v>
       </c>
       <c r="G21">
-        <v>13543373.73418414</v>
+        <v>16861681.98714736</v>
       </c>
       <c r="H21">
-        <v>191347979.9365347</v>
+        <v>203155114.8236818</v>
       </c>
       <c r="I21">
         <v>1.337</v>
@@ -1105,10 +1105,10 @@
         <v>584</v>
       </c>
       <c r="C22">
-        <v>1302267.133338604</v>
+        <v>822135.5753195445</v>
       </c>
       <c r="D22">
-        <v>13790823.80386114</v>
+        <v>10898895.66290717</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>702</v>
       </c>
       <c r="G22">
-        <v>1083367.529728981</v>
+        <v>683941.8461347778</v>
       </c>
       <c r="H22">
-        <v>12586102.60666589</v>
+        <v>9944105.259232149</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>584</v>
       </c>
       <c r="C23">
-        <v>1669.684434760274</v>
+        <v>1303.918611965297</v>
       </c>
       <c r="D23">
-        <v>24019.33021367</v>
+        <v>22355.16687535505</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1146,10 +1146,10 @@
         <v>702</v>
       </c>
       <c r="G23">
-        <v>1389.025227777778</v>
+        <v>1084.741409384236</v>
       </c>
       <c r="H23">
-        <v>21913.55159278414</v>
+        <v>20392.83192242035</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>584</v>
       </c>
       <c r="C24">
-        <v>3.726027397260274</v>
+        <v>3.702054794520548</v>
       </c>
       <c r="D24">
-        <v>40.31399410535405</v>
+        <v>40.24833200328599</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>702</v>
       </c>
       <c r="G24">
-        <v>3.0997150997151</v>
+        <v>3.07977207977208</v>
       </c>
       <c r="H24">
-        <v>36.79113697972767</v>
+        <v>36.73095948687867</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>584</v>
       </c>
       <c r="C25">
-        <v>5.431506849315069</v>
+        <v>5.563356164383562</v>
       </c>
       <c r="D25">
-        <v>30.31077624474718</v>
+        <v>29.79528943342914</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1204,10 +1204,10 @@
         <v>702</v>
       </c>
       <c r="G25">
-        <v>4.686609686609686</v>
+        <v>4.796296296296297</v>
       </c>
       <c r="H25">
-        <v>27.69188158044027</v>
+        <v>27.22568724894596</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1221,10 +1221,10 @@
         <v>584</v>
       </c>
       <c r="C26">
-        <v>4.448630136986301</v>
+        <v>4.705479452054795</v>
       </c>
       <c r="D26">
-        <v>16.07755959866293</v>
+        <v>15.83281773522862</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>702</v>
       </c>
       <c r="G26">
-        <v>3.868945868945869</v>
+        <v>4.082621082621083</v>
       </c>
       <c r="H26">
-        <v>14.71875873848167</v>
+        <v>14.50530956834843</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1279,10 +1279,10 @@
         <v>584</v>
       </c>
       <c r="C28">
-        <v>286.5178208304794</v>
+        <v>316.9030344297945</v>
       </c>
       <c r="D28">
-        <v>5781.760693099345</v>
+        <v>5822.509399917647</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>702</v>
       </c>
       <c r="G28">
-        <v>238.3567056481481</v>
+        <v>263.6344332008547</v>
       </c>
       <c r="H28">
-        <v>5273.818165724178</v>
+        <v>5311.213402588263</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>584</v>
       </c>
       <c r="C29">
-        <v>8970138.694748603</v>
+        <v>13303031.74465667</v>
       </c>
       <c r="D29">
-        <v>111527065.3255705</v>
+        <v>134592405.5826341</v>
       </c>
       <c r="E29">
-        <v>1.1845955</v>
+        <v>1.337</v>
       </c>
       <c r="F29">
         <v>702</v>
       </c>
       <c r="G29">
-        <v>7462337.828346415</v>
+        <v>11066909.82428133</v>
       </c>
       <c r="H29">
-        <v>101763477.964238</v>
+        <v>122843653.355616</v>
       </c>
       <c r="I29">
         <v>1.337</v>
@@ -1337,25 +1337,25 @@
         <v>584</v>
       </c>
       <c r="C30">
-        <v>275307.7494072723</v>
+        <v>340211.2811259384</v>
       </c>
       <c r="D30">
-        <v>4229054.550964426</v>
+        <v>4396664.883363428</v>
       </c>
       <c r="E30">
-        <v>0.7044305</v>
+        <v>0.9239310000000001</v>
       </c>
       <c r="F30">
         <v>702</v>
       </c>
       <c r="G30">
-        <v>229031.0938649245</v>
+        <v>283024.8972738205</v>
       </c>
       <c r="H30">
-        <v>3858099.733458219</v>
+        <v>4011598.370429792</v>
       </c>
       <c r="I30">
-        <v>0.8664350000000001</v>
+        <v>0.760243</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1366,10 +1366,10 @@
         <v>584</v>
       </c>
       <c r="C31">
-        <v>331.5904173613014</v>
+        <v>318.8088054863014</v>
       </c>
       <c r="D31">
-        <v>5963.7772030855</v>
+        <v>5960.024324658587</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>702</v>
       </c>
       <c r="G31">
-        <v>275.8529967792023</v>
+        <v>265.219860974359</v>
       </c>
       <c r="H31">
-        <v>5440.135066223622</v>
+        <v>5436.606422360602</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1395,10 +1395,10 @@
         <v>584</v>
       </c>
       <c r="C32">
-        <v>516769.2573144297</v>
+        <v>417362.9543215205</v>
       </c>
       <c r="D32">
-        <v>6864810.458971725</v>
+        <v>6643981.805567171</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>702</v>
       </c>
       <c r="G32">
-        <v>429904.9092188418</v>
+        <v>347207.9278116353</v>
       </c>
       <c r="H32">
-        <v>6263411.068955906</v>
+        <v>6061050.991168329</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>584</v>
       </c>
       <c r="C33">
-        <v>24484.9088429298</v>
+        <v>20152.95943900171</v>
       </c>
       <c r="D33">
-        <v>272432.6070168964</v>
+        <v>262800.7260297501</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1436,10 +1436,10 @@
         <v>702</v>
       </c>
       <c r="G33">
-        <v>20369.21191491596</v>
+        <v>16765.42494640598</v>
       </c>
       <c r="H33">
-        <v>248616.2400528516</v>
+        <v>239782.0878267795</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1453,10 +1453,10 @@
         <v>584</v>
       </c>
       <c r="C34">
-        <v>1.203767123287671</v>
+        <v>1.155821917808219</v>
       </c>
       <c r="D34">
-        <v>6.067198272295832</v>
+        <v>5.635409401051574</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1465,10 +1465,10 @@
         <v>702</v>
       </c>
       <c r="G34">
-        <v>1.001424501424501</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="H34">
-        <v>5.551342331084269</v>
+        <v>5.157430485543348</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>584</v>
       </c>
       <c r="C35">
-        <v>4.356164383561643</v>
+        <v>4.631849315068493</v>
       </c>
       <c r="D35">
-        <v>15.65614198429102</v>
+        <v>15.49568897071323</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1494,10 +1494,10 @@
         <v>702</v>
       </c>
       <c r="G35">
-        <v>3.792022792022792</v>
+        <v>4.021367521367521</v>
       </c>
       <c r="H35">
-        <v>14.33288943096536</v>
+        <v>14.19663617142132</v>
       </c>
       <c r="I35">
         <v>1</v>
